--- a/results/yq_test/regular_graph_cz/Rb2Re4/regular_graph_cz_20.xlsx
+++ b/results/yq_test/regular_graph_cz/Rb2Re4/regular_graph_cz_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/regular_graph_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2BB1C4B4DD7A5E77A542C0F050BD883442BFF9D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FCB01F-7BB8-844D-9208-5FF536A4B565}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_2BB1C4B4DD7A5E77A542C0F050BD883442BFF9D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3258F3A9-D5E6-E54B-94BD-B02B9908158F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlchart.v2.6" hidden="1">Sheet!$K$3:$K$8</definedName>
     <definedName name="_xlchart.v2.7" hidden="1">Sheet!$L$3:$L$8</definedName>
   </definedNames>
-  <calcPr calcId="0" calcCompleted="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>3-regular</a:t>
+              <a:t>(#Q-1)-regular</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
@@ -274,8 +274,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -286,7 +286,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -295,7 +295,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$3:$B$8</c:f>
               <c:numCache>
@@ -321,8 +321,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$E$3:$E$8</c:f>
               <c:numCache>
@@ -348,8 +348,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-92EF-1A44-8F8B-26730E1B10D2}"/>
@@ -365,7 +365,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -374,7 +374,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$3:$B$8</c:f>
               <c:numCache>
@@ -400,8 +400,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$K$3:$K$8</c:f>
               <c:numCache>
@@ -427,8 +427,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-92EF-1A44-8F8B-26730E1B10D2}"/>
@@ -444,7 +444,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -453,7 +453,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$3:$B$8</c:f>
               <c:numCache>
@@ -479,8 +479,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$L$3:$L$8</c:f>
               <c:numCache>
@@ -506,8 +506,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-92EF-1A44-8F8B-26730E1B10D2}"/>
@@ -522,14 +522,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1116552384"/>
         <c:axId val="1116029040"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1116552384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -554,7 +555,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -567,10 +568,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -587,7 +588,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -625,7 +626,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -642,12 +643,9 @@
         </c:txPr>
         <c:crossAx val="1116029040"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1116029040"/>
         <c:scaling>
@@ -676,7 +674,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -689,10 +687,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Fidelity</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -709,7 +707,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -741,7 +739,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -758,7 +756,7 @@
         </c:txPr>
         <c:crossAx val="1116552384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
